--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1189,28 +1201,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1247,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1501,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1536,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1594,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2947,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +2994,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3040,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3542,10 +3554,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3589,28 +3601,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3635,28 +3647,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3831,10 +3843,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3878,28 +3890,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3924,28 +3936,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4091,10 +4103,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4138,28 +4150,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4184,28 +4196,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4293,10 +4305,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4340,28 +4352,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4386,28 +4398,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4871,10 +4883,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4918,28 +4930,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4964,28 +4976,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5131,10 +5143,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5178,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5224,28 +5236,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5391,10 +5403,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J182" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5438,28 +5450,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5484,28 +5496,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5593,10 +5605,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5640,28 +5652,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5686,28 +5698,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
